--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="States" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="HP_Test" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>States</t>
+          <t>serial_number</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Capitals</t>
+          <t>brand</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>modele</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>product_number</t>
         </is>
       </c>
     </row>
@@ -456,17 +461,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>CZJ029073S</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>HPE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>508529</t>
+          <t>DL360 Gen10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>867959-B21</t>
         </is>
       </c>
     </row>
@@ -476,17 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>CZJ029073T</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tallahassee</t>
+          <t>HPE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>193551</t>
+          <t>DL360 Gen10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>867959-B21</t>
         </is>
       </c>
     </row>
@@ -496,17 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>ACM029T0XJ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>HPE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>32315</t>
+          <t>MSA 1050</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Q2R21B</t>
         </is>
       </c>
     </row>
@@ -516,57 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colorodo</t>
+          <t>CZ20290VD0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>HPE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>619968</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Washington</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Olympia</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>52555</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Virginia</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>227032</t>
+          <t>StoreOnce 3620 24TB System</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BB954A</t>
         </is>
       </c>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="HP_Test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HP" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,31 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ACM029T0XJ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>HPE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MSA 1050</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Q2R21B</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>serial_number</t>
   </si>
@@ -28,25 +28,37 @@
     <t>product_number</t>
   </si>
   <si>
+    <t>CZJ029073S</t>
+  </si>
+  <si>
+    <t>HPE</t>
+  </si>
+  <si>
+    <t>DL360 Gen10</t>
+  </si>
+  <si>
+    <t>867959-B21</t>
+  </si>
+  <si>
+    <t>CZJ029073T</t>
+  </si>
+  <si>
     <t>ACM029T0XJ</t>
   </si>
   <si>
-    <t>HPE</t>
-  </si>
-  <si>
     <t>MSA 1050</t>
   </si>
   <si>
     <t>Q2R21B</t>
   </si>
   <si>
-    <t>CZJ029073T</t>
-  </si>
-  <si>
-    <t>DL360 Gen10</t>
-  </si>
-  <si>
-    <t>867959-B21</t>
+    <t>CZ20290VD0</t>
+  </si>
+  <si>
+    <t>StoreOnce 3620 24TB System</t>
+  </si>
+  <si>
+    <t>BB954A</t>
   </si>
 </sst>
 </file>
@@ -64,7 +76,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -77,14 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,13 +118,13 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -433,17 +438,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -461,7 +466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -478,7 +483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -489,32 +494,45 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="HP"/>
+    <sheet name="HP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="49">
   <si>
     <t>serial_number</t>
   </si>
@@ -28,45 +28,146 @@
     <t>product_number</t>
   </si>
   <si>
+    <t>C_Type de garantie:</t>
+  </si>
+  <si>
+    <t>C_Type de service:</t>
+  </si>
+  <si>
+    <t>C_État:</t>
+  </si>
+  <si>
+    <t>C_Date de début:</t>
+  </si>
+  <si>
+    <t>C_Date de fin:</t>
+  </si>
+  <si>
+    <t>G_Type de garantie:</t>
+  </si>
+  <si>
+    <t>G_Type de service:</t>
+  </si>
+  <si>
+    <t>G_État:</t>
+  </si>
+  <si>
+    <t>G_Date de début:</t>
+  </si>
+  <si>
+    <t>G_Date de fin:</t>
+  </si>
+  <si>
+    <t>G_Niveaux de service :</t>
+  </si>
+  <si>
+    <t>G_Éléments à livrer:</t>
+  </si>
+  <si>
     <t>CZJ029073S</t>
   </si>
   <si>
+    <t>CZJ029073T</t>
+  </si>
+  <si>
+    <t>ACM029T0XJ</t>
+  </si>
+  <si>
+    <t>CZ20290VD0</t>
+  </si>
+  <si>
     <t>HPE</t>
   </si>
   <si>
     <t>DL360 Gen10</t>
   </si>
   <si>
+    <t>MSA 1050</t>
+  </si>
+  <si>
+    <t>StoreOnce 3620 24TB System</t>
+  </si>
+  <si>
     <t>867959-B21</t>
   </si>
   <si>
-    <t>CZJ029073T</t>
-  </si>
-  <si>
-    <t>ACM029T0XJ</t>
-  </si>
-  <si>
-    <t>MSA 1050</t>
-  </si>
-  <si>
     <t>Q2R21B</t>
   </si>
   <si>
-    <t>CZ20290VD0</t>
-  </si>
-  <si>
-    <t>StoreOnce 3620 24TB System</t>
-  </si>
-  <si>
     <t>BB954A</t>
+  </si>
+  <si>
+    <t>Contrat</t>
+  </si>
+  <si>
+    <t>HPE Collaborative Remote Support</t>
+  </si>
+  <si>
+    <t>HPE Software Updates SVC</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>7 août 2020</t>
+  </si>
+  <si>
+    <t>6 août 2025</t>
+  </si>
+  <si>
+    <t>Garantie de base</t>
+  </si>
+  <si>
+    <t>Wty: HPE Support for Initial Setup</t>
+  </si>
+  <si>
+    <t>Wty: HPE Parts Exchange Support</t>
+  </si>
+  <si>
+    <t>Wty: HPE HW Maintenance Onsite Support*</t>
+  </si>
+  <si>
+    <t>Expiré</t>
+  </si>
+  <si>
+    <t>20 juil. 2020</t>
+  </si>
+  <si>
+    <t>31 juil. 2020</t>
+  </si>
+  <si>
+    <t>16 nov. 2020</t>
+  </si>
+  <si>
+    <t>29 août 2023</t>
+  </si>
+  <si>
+    <t>18 août 2023</t>
+  </si>
+  <si>
+    <t>NextAvail TechResource RemoteStd Office Hrs Std Office Days2 Hr Remote ResponseUnlimited Named Callers</t>
+  </si>
+  <si>
+    <t>NextAvail TechResource RemoteStd Office Hrs Std Office DaysNormal Product Lead TimeHP Ships To Customer SiteCustomer delivers to RepairCtr</t>
+  </si>
+  <si>
+    <t>Standard Material HandlingGlobal CoverageNextAvail TechResource RemoteStd Office Hrs Std Office DaysNextAvail TechResource OnsiteNext Cov Day Onsite ResponseStandard Parts LogisticsNo Usage Limitation</t>
+  </si>
+  <si>
+    <t>Initial Setup Assistance</t>
+  </si>
+  <si>
+    <t>Parts ExchangeRemote Support and DiagnosisAdvance Exchange</t>
+  </si>
+  <si>
+    <t>Onsite SupportParts and Material providedHardware Problem Diagnosis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,10 +176,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,16 +202,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -116,37 +219,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -155,10 +238,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -196,71 +279,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -284,53 +365,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -340,7 +422,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -349,7 +431,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -358,7 +440,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -366,10 +448,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -398,7 +480,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -411,12 +493,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -434,104 +517,1227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="3">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
         <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
